--- a/SchedulingData/dynamic11/pso/scheduling2_7.xlsx
+++ b/SchedulingData/dynamic11/pso/scheduling2_7.xlsx
@@ -462,382 +462,382 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>225.74</v>
+        <v>251.88</v>
       </c>
       <c r="D2" t="n">
-        <v>313.34</v>
+        <v>305.96</v>
       </c>
       <c r="E2" t="n">
-        <v>11.316</v>
+        <v>12.024</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>245.94</v>
+        <v>248.24</v>
       </c>
       <c r="D3" t="n">
-        <v>288.04</v>
+        <v>300.62</v>
       </c>
       <c r="E3" t="n">
-        <v>11.376</v>
+        <v>11.128</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>236.96</v>
+        <v>255.78</v>
       </c>
       <c r="D4" t="n">
-        <v>269.06</v>
+        <v>323.76</v>
       </c>
       <c r="E4" t="n">
-        <v>12.284</v>
+        <v>12.264</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>313.34</v>
+        <v>305.96</v>
       </c>
       <c r="D5" t="n">
-        <v>350.94</v>
+        <v>338.28</v>
       </c>
       <c r="E5" t="n">
-        <v>9.196</v>
+        <v>9.432</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>230.9</v>
+        <v>323.76</v>
       </c>
       <c r="D6" t="n">
-        <v>297.9</v>
+        <v>377.62</v>
       </c>
       <c r="E6" t="n">
-        <v>13.86</v>
+        <v>9.507999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>203.24</v>
+        <v>245.02</v>
       </c>
       <c r="D7" t="n">
-        <v>238.4</v>
+        <v>283.86</v>
       </c>
       <c r="E7" t="n">
-        <v>12.88</v>
+        <v>12.804</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>350.94</v>
+        <v>377.62</v>
       </c>
       <c r="D8" t="n">
-        <v>395.9</v>
+        <v>431.18</v>
       </c>
       <c r="E8" t="n">
-        <v>6.82</v>
+        <v>6.752</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>288.04</v>
+        <v>300.62</v>
       </c>
       <c r="D9" t="n">
-        <v>330.8</v>
+        <v>343.32</v>
       </c>
       <c r="E9" t="n">
-        <v>8.24</v>
+        <v>8.488</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>297.9</v>
+        <v>235.82</v>
       </c>
       <c r="D10" t="n">
-        <v>349.92</v>
+        <v>292.62</v>
       </c>
       <c r="E10" t="n">
-        <v>11.268</v>
+        <v>10.428</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>238.4</v>
+        <v>431.18</v>
       </c>
       <c r="D11" t="n">
-        <v>293.2</v>
+        <v>494.68</v>
       </c>
       <c r="E11" t="n">
-        <v>10.02</v>
+        <v>3.512</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>293.2</v>
+        <v>283.86</v>
       </c>
       <c r="D12" t="n">
-        <v>347.5</v>
+        <v>346.6</v>
       </c>
       <c r="E12" t="n">
-        <v>6.72</v>
+        <v>10.12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>347.5</v>
+        <v>292.62</v>
       </c>
       <c r="D13" t="n">
-        <v>414.04</v>
+        <v>337.52</v>
       </c>
       <c r="E13" t="n">
-        <v>4.176</v>
+        <v>7.568</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>206.56</v>
+        <v>337.52</v>
       </c>
       <c r="D14" t="n">
-        <v>274.28</v>
+        <v>378.58</v>
       </c>
       <c r="E14" t="n">
-        <v>14.092</v>
+        <v>4.592</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>395.9</v>
+        <v>346.6</v>
       </c>
       <c r="D15" t="n">
-        <v>457.82</v>
+        <v>388.72</v>
       </c>
       <c r="E15" t="n">
-        <v>4.228</v>
+        <v>7.528</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>274.28</v>
+        <v>224.5</v>
       </c>
       <c r="D16" t="n">
-        <v>339.78</v>
+        <v>276</v>
       </c>
       <c r="E16" t="n">
-        <v>11.132</v>
+        <v>11.12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>269.06</v>
+        <v>343.32</v>
       </c>
       <c r="D17" t="n">
-        <v>312.7</v>
+        <v>402.92</v>
       </c>
       <c r="E17" t="n">
-        <v>10.04</v>
+        <v>5.628</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>414.04</v>
+        <v>338.28</v>
       </c>
       <c r="D18" t="n">
-        <v>473.84</v>
+        <v>400.3</v>
       </c>
       <c r="E18" t="n">
-        <v>1.316</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>473.84</v>
+        <v>388.72</v>
       </c>
       <c r="D19" t="n">
-        <v>567.61</v>
+        <v>472.02</v>
       </c>
       <c r="E19" t="n">
-        <v>30</v>
+        <v>4.288</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>330.8</v>
+        <v>402.92</v>
       </c>
       <c r="D20" t="n">
-        <v>383.7</v>
+        <v>435.02</v>
       </c>
       <c r="E20" t="n">
-        <v>6.08</v>
+        <v>3.548</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>312.7</v>
+        <v>400.3</v>
       </c>
       <c r="D21" t="n">
-        <v>366.7</v>
+        <v>427.5</v>
       </c>
       <c r="E21" t="n">
-        <v>5.28</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="22">
@@ -846,71 +846,71 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>366.7</v>
+        <v>378.58</v>
       </c>
       <c r="D22" t="n">
-        <v>435.98</v>
+        <v>414.08</v>
       </c>
       <c r="E22" t="n">
-        <v>2.472</v>
+        <v>2.172</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>383.7</v>
+        <v>472.02</v>
       </c>
       <c r="D23" t="n">
-        <v>416.7</v>
+        <v>507.18</v>
       </c>
       <c r="E23" t="n">
-        <v>3.92</v>
+        <v>1.912</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>416.7</v>
+        <v>507.18</v>
       </c>
       <c r="D24" t="n">
-        <v>469.4</v>
+        <v>604.66</v>
       </c>
       <c r="E24" t="n">
-        <v>1.28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>469.4</v>
+        <v>414.08</v>
       </c>
       <c r="D25" t="n">
-        <v>568.24</v>
+        <v>506.34</v>
       </c>
       <c r="E25" t="n">
         <v>30</v>
@@ -918,21 +918,21 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>567.61</v>
+        <v>506.34</v>
       </c>
       <c r="D26" t="n">
-        <v>627.21</v>
+        <v>575.62</v>
       </c>
       <c r="E26" t="n">
-        <v>26.7</v>
+        <v>27.712</v>
       </c>
     </row>
     <row r="27">
@@ -941,55 +941,55 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>627.21</v>
+        <v>276</v>
       </c>
       <c r="D27" t="n">
-        <v>671.6900000000001</v>
+        <v>324.7</v>
       </c>
       <c r="E27" t="n">
-        <v>23.892</v>
+        <v>7.88</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>435.98</v>
+        <v>324.7</v>
       </c>
       <c r="D28" t="n">
-        <v>479.96</v>
+        <v>379.66</v>
       </c>
       <c r="E28" t="n">
-        <v>0.184</v>
+        <v>5.504</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>479.96</v>
+        <v>379.66</v>
       </c>
       <c r="D29" t="n">
-        <v>585.99</v>
+        <v>423.96</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>2.204</v>
       </c>
     </row>
     <row r="30">
@@ -998,264 +998,264 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>339.78</v>
+        <v>427.5</v>
       </c>
       <c r="D30" t="n">
-        <v>412.52</v>
+        <v>489.5</v>
       </c>
       <c r="E30" t="n">
-        <v>8.448</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>349.92</v>
+        <v>435.02</v>
       </c>
       <c r="D31" t="n">
-        <v>385.52</v>
+        <v>494.3</v>
       </c>
       <c r="E31" t="n">
-        <v>8.848000000000001</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>385.52</v>
+        <v>494.3</v>
       </c>
       <c r="D32" t="n">
-        <v>440.38</v>
+        <v>584.52</v>
       </c>
       <c r="E32" t="n">
-        <v>6.472</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>585.99</v>
+        <v>494.68</v>
       </c>
       <c r="D33" t="n">
-        <v>645.29</v>
+        <v>529.16</v>
       </c>
       <c r="E33" t="n">
-        <v>26.76</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>440.38</v>
+        <v>529.16</v>
       </c>
       <c r="D34" t="n">
-        <v>513.48</v>
+        <v>594.75</v>
       </c>
       <c r="E34" t="n">
-        <v>3.232</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>513.48</v>
+        <v>423.96</v>
       </c>
       <c r="D35" t="n">
-        <v>547.96</v>
+        <v>506.15</v>
       </c>
       <c r="E35" t="n">
-        <v>0.424</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>547.96</v>
+        <v>506.15</v>
       </c>
       <c r="D36" t="n">
-        <v>614.11</v>
+        <v>573.91</v>
       </c>
       <c r="E36" t="n">
-        <v>30</v>
+        <v>26.864</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>412.52</v>
+        <v>573.91</v>
       </c>
       <c r="D37" t="n">
-        <v>461.12</v>
+        <v>626.8099999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>4.728</v>
+        <v>24.704</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>568.24</v>
+        <v>489.5</v>
       </c>
       <c r="D38" t="n">
-        <v>622.5</v>
+        <v>536.04</v>
       </c>
       <c r="E38" t="n">
-        <v>27.244</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>457.82</v>
+        <v>536.04</v>
       </c>
       <c r="D39" t="n">
-        <v>514.64</v>
+        <v>627.45</v>
       </c>
       <c r="E39" t="n">
-        <v>1.636</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>514.64</v>
+        <v>575.62</v>
       </c>
       <c r="D40" t="n">
-        <v>593.17</v>
+        <v>622.8200000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>30</v>
+        <v>24.632</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>461.12</v>
+        <v>594.75</v>
       </c>
       <c r="D41" t="n">
-        <v>493.22</v>
+        <v>657.65</v>
       </c>
       <c r="E41" t="n">
-        <v>2.648</v>
+        <v>27.84</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>622.5</v>
+        <v>584.52</v>
       </c>
       <c r="D42" t="n">
-        <v>700.9</v>
+        <v>649.88</v>
       </c>
       <c r="E42" t="n">
-        <v>24.004</v>
+        <v>27.624</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>593.17</v>
+        <v>604.66</v>
       </c>
       <c r="D43" t="n">
-        <v>662.03</v>
+        <v>657.36</v>
       </c>
       <c r="E43" t="n">
-        <v>27.244</v>
+        <v>26.92</v>
       </c>
     </row>
   </sheetData>
